--- a/appdata/static/template/Excel-Vorlage_Empfaengeradressen.xlsx
+++ b/appdata/static/template/Excel-Vorlage_Empfaengeradressen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mailing\appdata\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5552E44F-A90A-47DA-99C1-D5984DA1F1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9E6B77-43E3-49B6-B67C-7E0C41542CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="12">
   <si>
     <t>Vorname</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Anrede</t>
+  </si>
+  <si>
+    <t>Abteilung</t>
+  </si>
+  <si>
+    <t>Adresszusatz</t>
   </si>
 </sst>
 </file>
@@ -309,18 +315,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD24"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -348,8 +355,14 @@
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -377,8 +390,14 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,8 +425,14 @@
       <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,8 +460,14 @@
       <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +495,14 @@
       <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +530,14 @@
       <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -520,6 +563,12 @@
         <v>7</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
